--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 16-5.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 16-5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Projects\11209000\11209269\B. Measurements and calculations\007 Assemblagekernel\Testcases\Aangepast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0216337B-77EA-4B04-BBB1-1EE8A8EC92B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDB3C4F-2884-4D2B-9DD8-456DDD6F4BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="653" firstSheet="1" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -433,6 +433,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="172" formatCode="0.00000000000E+00"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -700,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -781,6 +784,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1948,14 +1952,15 @@
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34.140625" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+    <col min="5" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
@@ -1983,9 +1988,9 @@
       <c r="B3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="70">
         <f>1-PRODUCT(O7:O13)*(1-N15)</f>
-        <v>3.6489667937857129E-2</v>
+        <v>3.7572465145040645E-2</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$4:$D$8,I3)</f>
@@ -2058,14 +2063,14 @@
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="1" t="e">
-        <f>IF(ISNUMBER(E7),1-E7,1-C7)</f>
+        <f t="shared" ref="H7:H13" si="0">IF(ISNUMBER(E7),1-E7,1-C7)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I7" s="1">
-        <f>IF(ISNUMBER(E7),1-E7,1-D7)</f>
+        <f t="shared" ref="I7:I13" si="1">IF(ISNUMBER(E7),1-E7,1-D7)</f>
         <v>0.9969559088682185</v>
       </c>
       <c r="J7" s="1" t="e">
@@ -2077,7 +2082,7 @@
         <v>3.0440911317815011E-3</v>
       </c>
       <c r="L7" s="1" t="e">
-        <f>F7*J7</f>
+        <f t="shared" ref="L7:L13" si="2">F7*J7</f>
         <v>#VALUE!</v>
       </c>
       <c r="M7" s="1" t="e">
@@ -2085,12 +2090,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="N7" s="1">
-        <f>F7*K7</f>
-        <v>3.0440911317815011E-3</v>
+        <f t="shared" ref="N7:N13" si="3">F7*K7</f>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
         <f>1-(1-F7)*K7</f>
-        <v>1</v>
+        <v>0.9969559088682185</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -2107,39 +2112,39 @@
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="1" t="e">
-        <f>IF(ISNUMBER(E8),1-E8,1-C8)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="I8" s="1">
-        <f>IF(ISNUMBER(E8),1-E8,1-D8)</f>
+        <f t="shared" si="1"/>
         <v>0.99887619554129115</v>
       </c>
       <c r="J8" s="1" t="e">
-        <f t="shared" ref="J8:K13" si="0">1-H8</f>
+        <f t="shared" ref="J8:K13" si="4">1-H8</f>
         <v>#VALUE!</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1238044587088547E-3</v>
       </c>
       <c r="L8" s="1" t="e">
-        <f>F8*J8</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="M8" s="1" t="e">
-        <f t="shared" ref="M8:M13" si="1">1-(1-F8)*J8</f>
+        <f t="shared" ref="M8:M13" si="5">1-(1-F8)*J8</f>
         <v>#VALUE!</v>
       </c>
       <c r="N8" s="1">
-        <f>F8*K8</f>
-        <v>1.1238044587088547E-3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" ref="O8:O13" si="2">1-(1-F8)*K8</f>
-        <v>1</v>
+        <f t="shared" ref="O8:O13" si="6">1-(1-F8)*K8</f>
+        <v>0.99887619554129115</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -2159,35 +2164,35 @@
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <f>IF(ISNUMBER(E9),1-E9,1-C9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I9" s="1">
-        <f>IF(ISNUMBER(E9),1-E9,1-D9)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <f>F9*J9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N9" s="1">
-        <f>F9*K9</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2208,35 +2213,35 @@
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <f>IF(ISNUMBER(E10),1-E10,1-C10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I10" s="1">
-        <f>IF(ISNUMBER(E10),1-E10,1-D10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <f>F10*J10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N10" s="1">
-        <f>F10*K10</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -2257,35 +2262,35 @@
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <f>IF(ISNUMBER(E11),1-E11,1-C11)</f>
+        <f t="shared" si="0"/>
         <v>0.99800385899832711</v>
       </c>
       <c r="I11" s="1">
-        <f>IF(ISNUMBER(E11),1-E11,1-D11)</f>
-        <v>0.99800385899832711</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.9961410016728909E-3</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.9961410016728909E-3</v>
-      </c>
-      <c r="L11" s="1">
-        <f>F11*J11</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
         <f t="shared" si="1"/>
         <v>0.99800385899832711</v>
       </c>
+      <c r="J11" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9961410016728909E-3</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="4"/>
+        <v>1.9961410016728909E-3</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.99800385899832711</v>
+      </c>
       <c r="N11" s="1">
-        <f>F11*K11</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99800385899832711</v>
       </c>
     </row>
@@ -2306,35 +2311,35 @@
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f>IF(ISNUMBER(E12),1-E12,1-C12)</f>
+        <f t="shared" si="0"/>
         <v>0.97156234347573078</v>
       </c>
       <c r="I12" s="1">
-        <f>IF(ISNUMBER(E12),1-E12,1-D12)</f>
-        <v>0.97156234347573078</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8437656524269217E-2</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="0"/>
-        <v>2.8437656524269217E-2</v>
-      </c>
-      <c r="L12" s="1">
-        <f>F12*J12</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
         <f t="shared" si="1"/>
         <v>0.97156234347573078</v>
       </c>
+      <c r="J12" s="1">
+        <f t="shared" si="4"/>
+        <v>2.8437656524269217E-2</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="4"/>
+        <v>2.8437656524269217E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.97156234347573078</v>
+      </c>
       <c r="N12" s="1">
-        <f>F12*K12</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.97156234347573078</v>
       </c>
     </row>
@@ -2355,35 +2360,35 @@
         <v>0</v>
       </c>
       <c r="H13" s="1" t="e">
-        <f>IF(ISNUMBER(E13),1-E13,1-C13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I13" s="1">
-        <f>IF(ISNUMBER(E13),1-E13,1-D13)</f>
-        <v>0.99673</v>
-      </c>
-      <c r="J13" s="1" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99673</v>
+      </c>
+      <c r="J13" s="1" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="K13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>3.2699999999999951E-3</v>
       </c>
       <c r="L13" s="1" t="e">
-        <f>F13*J13</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="M13" s="1" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="N13" s="1">
-        <f>F13*K13</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.99673</v>
       </c>
     </row>
@@ -2408,7 +2413,7 @@
       </c>
       <c r="N15" s="1">
         <f>MAX(N7:N13)</f>
-        <v>3.0440911317815011E-3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 16-5.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 16-5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDB3C4F-2884-4D2B-9DD8-456DDD6F4BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28FF505-A858-4D25-93F7-4143DFAE73A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="653" firstSheet="1" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.00000000000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.00000000000E+00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -784,7 +784,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1952,7 +1952,7 @@
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,7 +1990,7 @@
       </c>
       <c r="D3" s="70">
         <f>1-PRODUCT(O7:O13)*(1-N15)</f>
-        <v>3.7572465145040645E-2</v>
+        <v>3.6489667937857129E-2</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$4:$D$8,I3)</f>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="e">
         <f t="shared" ref="H7:H13" si="0">IF(ISNUMBER(E7),1-E7,1-C7)</f>
@@ -2091,11 +2091,11 @@
       </c>
       <c r="N7" s="1">
         <f t="shared" ref="N7:N13" si="3">F7*K7</f>
-        <v>0</v>
+        <v>3.0440911317815011E-3</v>
       </c>
       <c r="O7" s="1">
         <f>1-(1-F7)*K7</f>
-        <v>0.9969559088682185</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1" t="e">
         <f t="shared" si="0"/>
@@ -2140,11 +2140,11 @@
       </c>
       <c r="N8" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.1238044587088547E-3</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" ref="O8:O13" si="6">1-(1-F8)*K8</f>
-        <v>0.99887619554129115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="N15" s="1">
         <f>MAX(N7:N13)</f>
-        <v>0</v>
+        <v>3.0440911317815011E-3</v>
       </c>
     </row>
   </sheetData>

--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 16-5.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 16-5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDB3044-ADE0-445E-BEA8-772ECF2099E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3008028D-D1F9-4635-A9B3-196F9F2ED849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="8" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="4" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -243,9 +243,6 @@
     <t>Macrostabiliteit</t>
   </si>
   <si>
-    <t>Erosie van het buitentalud</t>
-  </si>
-  <si>
     <t>Duinafslag</t>
   </si>
   <si>
@@ -427,6 +424,9 @@
   </si>
   <si>
     <t>Gecorreleerd</t>
+  </si>
+  <si>
+    <t>Erosie van het binnentalud</t>
   </si>
 </sst>
 </file>
@@ -1714,19 +1714,19 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="52" t="s">
+      <c r="E2" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>83</v>
-      </c>
-      <c r="E2" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1734,7 +1734,7 @@
         <v>49</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>20</v>
@@ -1751,7 +1751,7 @@
         <v>65</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>20</v>
@@ -1765,10 +1765,10 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>21</v>
@@ -1777,21 +1777,21 @@
         <v>20</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>21</v>
@@ -1799,16 +1799,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>21</v>
@@ -1816,10 +1816,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>21</v>
@@ -1833,16 +1833,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>21</v>
@@ -1850,16 +1850,16 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>21</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>21</v>
@@ -1884,10 +1884,10 @@
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>99</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>21</v>
@@ -1896,7 +1896,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1968,7 +1968,7 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>IFERROR(1-PRODUCT(M7:M13)*(1-L15),"GR")</f>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(O7:O13)*(1-N15)</f>
@@ -2022,39 +2022,39 @@
         <v>41</v>
       </c>
       <c r="E6" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="J6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>STPH!C7</f>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="31" t="str">
         <f>STBI!C7</f>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" s="31">
         <f>GEKB!C7</f>
@@ -2204,7 +2204,7 @@
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C10" s="31">
         <f>DA!C7</f>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="31">
         <f>STKWp!C7</f>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="31">
         <f>HTKW!C7</f>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="31" t="str">
         <f>BSKW!C7</f>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I15" s="1"/>
       <c r="K15" s="1"/>
@@ -2517,31 +2517,31 @@
       <c r="B2" s="9"/>
       <c r="C2" s="14"/>
       <c r="D2" s="67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="H2" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="I2" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="J2" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="K2" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" s="53" t="s">
         <v>72</v>
-      </c>
-      <c r="K2" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="L2" s="53" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
@@ -3215,7 +3215,7 @@
         <v>52</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="9">
         <v>24</v>
@@ -3316,12 +3316,12 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="53" t="s">
         <v>39</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>20</v>
@@ -3485,15 +3485,15 @@
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>20</v>
@@ -3528,7 +3528,7 @@
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(AB16:AB35)</f>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="12" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(R16:R35)</f>
@@ -3566,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>3</v>
@@ -3625,16 +3625,16 @@
         <v>63</v>
       </c>
       <c r="Y15" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z15" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA15" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB15" s="38" t="s">
         <v>117</v>
-      </c>
-      <c r="AB15" s="38" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.25">
@@ -5131,7 +5131,7 @@
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>20</v>
@@ -5139,15 +5139,15 @@
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>20</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(AB16:AB35)</f>
@@ -5200,7 +5200,7 @@
     </row>
     <row r="12" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(R16:R35)</f>
@@ -5220,7 +5220,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>3</v>
@@ -5279,16 +5279,16 @@
         <v>63</v>
       </c>
       <c r="Y15" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z15" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AA15" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB15" s="38" t="s">
         <v>117</v>
-      </c>
-      <c r="AB15" s="38" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.25">
@@ -6757,8 +6757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
   <dimension ref="B2:X32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6782,7 +6782,7 @@
         <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
@@ -6795,7 +6795,7 @@
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>21</v>
@@ -6803,15 +6803,15 @@
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>21</v>
@@ -6846,7 +6846,7 @@
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(X16:X21)</f>
@@ -6864,7 +6864,7 @@
     </row>
     <row r="12" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N21)</f>
@@ -6919,10 +6919,10 @@
         <v>43</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>80</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>81</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>61</v>
@@ -6935,21 +6935,21 @@
         <v>63</v>
       </c>
       <c r="U15" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V15" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W15" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="X15" s="38" t="s">
         <v>117</v>
-      </c>
-      <c r="X15" s="38" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
@@ -7419,7 +7419,7 @@
         <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
@@ -7432,7 +7432,7 @@
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>21</v>
@@ -7440,15 +7440,15 @@
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>21</v>
@@ -7483,7 +7483,7 @@
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(X16)</f>
@@ -7501,7 +7501,7 @@
     </row>
     <row r="12" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16)</f>
@@ -7572,16 +7572,16 @@
         <v>63</v>
       </c>
       <c r="U15" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V15" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W15" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="X15" s="38" t="s">
         <v>117</v>
-      </c>
-      <c r="X15" s="38" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8013,7 +8013,7 @@
         <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
@@ -8026,7 +8026,7 @@
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>21</v>
@@ -8034,15 +8034,15 @@
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>21</v>
@@ -8077,7 +8077,7 @@
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(X16:X33)</f>
@@ -8095,7 +8095,7 @@
     </row>
     <row r="12" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N33)</f>
@@ -8146,10 +8146,10 @@
         <v>43</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>80</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>81</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>61</v>
@@ -8162,16 +8162,16 @@
         <v>63</v>
       </c>
       <c r="U15" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V15" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W15" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="X15" s="38" t="s">
         <v>117</v>
-      </c>
-      <c r="X15" s="38" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
@@ -9438,7 +9438,7 @@
         <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
@@ -9451,7 +9451,7 @@
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>21</v>
@@ -9459,15 +9459,15 @@
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>113</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>21</v>
@@ -9502,7 +9502,7 @@
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(X16:X32)</f>
@@ -9520,7 +9520,7 @@
     </row>
     <row r="12" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N32)</f>
@@ -9571,10 +9571,10 @@
         <v>43</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>80</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>81</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>61</v>
@@ -9584,19 +9584,19 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="U15" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="V15" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="U15" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="V15" s="37" t="s">
-        <v>112</v>
-      </c>
       <c r="W15" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="X15" s="38" t="s">
         <v>117</v>
-      </c>
-      <c r="X15" s="38" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
@@ -10689,23 +10689,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G16:G20 G22:G32">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="26" priority="5">
       <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I32">
-    <cfRule type="expression" dxfId="14" priority="4">
+    <cfRule type="expression" dxfId="25" priority="4">
       <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K32">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10803,7 +10803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4475A-3782-4C92-8ED6-63AC240A6132}">
   <dimension ref="B2:X35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
@@ -10828,7 +10828,7 @@
         <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
@@ -10841,7 +10841,7 @@
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>21</v>
@@ -10849,15 +10849,15 @@
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>21</v>
@@ -10892,7 +10892,7 @@
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="26">
         <f>MAX(X16:X33)</f>
@@ -10910,7 +10910,7 @@
     </row>
     <row r="12" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C12" s="27">
         <f>1-PRODUCT(N16:N33)</f>
@@ -10961,10 +10961,10 @@
         <v>43</v>
       </c>
       <c r="O15" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" s="36" t="s">
         <v>80</v>
-      </c>
-      <c r="P15" s="36" t="s">
-        <v>81</v>
       </c>
       <c r="Q15" s="37" t="s">
         <v>61</v>
@@ -10974,19 +10974,19 @@
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="U15" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="V15" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="U15" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="V15" s="36" t="s">
-        <v>112</v>
-      </c>
       <c r="W15" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="X15" s="38" t="s">
         <v>117</v>
-      </c>
-      <c r="X15" s="38" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
@@ -12099,23 +12099,23 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G16:G33">
-    <cfRule type="expression" dxfId="26" priority="5">
+    <cfRule type="expression" dxfId="15" priority="5">
       <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16:I33">
-    <cfRule type="expression" dxfId="25" priority="4">
+    <cfRule type="expression" dxfId="14" priority="4">
       <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16:K33">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 16-5.xlsx
+++ b/test/Assembly.Kernel.Acceptance.Test/test-data/definitions/Benchmarktest_traject 16-5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Checkouts\AssemblageKernel\test\Assembly.Kernel.Acceptance.Test\test-data\definitions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Deltabox\Postbox\Wojciechowska, Karolina\vanRobert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3008028D-D1F9-4635-A9B3-196F9F2ED849}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE0228A-1D89-4EB3-A21D-BD1B03518EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="4" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="3" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="D8" s="26">
         <f>STBI!C8</f>
-        <v>1.1238044587088547E-3</v>
+        <v>1.0688399999999999E-3</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="23" t="str">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="I8" s="1">
         <f t="shared" si="1"/>
-        <v>0.99887619554129115</v>
+        <v>0.99893116000000004</v>
       </c>
       <c r="J8" s="1" t="e">
         <f t="shared" ref="J8:K13" si="2">1-H8</f>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="K8" s="1">
         <f t="shared" si="2"/>
-        <v>1.1238044587088547E-3</v>
+        <v>1.0688399999999598E-3</v>
       </c>
       <c r="L8" s="1" t="e">
         <f t="shared" ref="L8:L13" si="3">IF(F8="Ja",1,0)*J8</f>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="N8" s="1">
         <f t="shared" ref="N8:N13" si="5">IF(F8="Ja",1,0)*K8</f>
-        <v>1.1238044587088547E-3</v>
+        <v>1.0688399999999598E-3</v>
       </c>
       <c r="O8" s="1">
         <f t="shared" ref="O8:O13" si="6">1-(1-IF(F8="Ja",1,0))*K8</f>
@@ -5089,8 +5089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFA30DD-EAF1-4973-B290-E12CB5036732}">
   <dimension ref="B2:AB37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5126,7 +5126,7 @@
         <v>44</v>
       </c>
       <c r="C3" s="7">
-        <v>14.8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.25">
@@ -5142,7 +5142,7 @@
         <v>112</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="C8" s="26">
         <f>IF(C5="P1",1-PRODUCT(R16:R35),MAX(T16:T35))</f>
-        <v>1.1238044587088547E-3</v>
+        <v>1.0688399999999999E-3</v>
       </c>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
@@ -5436,11 +5436,11 @@
       </c>
       <c r="S17" s="10">
         <f t="shared" si="4"/>
-        <v>3.5076E-3</v>
+        <v>1.0665E-3</v>
       </c>
       <c r="T17" s="10">
         <f t="shared" ref="T17:T27" si="7">IF(L17="-",0,S17)</f>
-        <v>3.5076E-3</v>
+        <v>1.0665E-3</v>
       </c>
       <c r="U17" s="9">
         <f t="array" ref="U17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -5528,11 +5528,11 @@
       </c>
       <c r="S18" s="10">
         <f t="shared" si="4"/>
-        <v>1.48E-49</v>
+        <v>4.4999999999999996E-50</v>
       </c>
       <c r="T18" s="10">
         <f t="shared" si="7"/>
-        <v>1.48E-49</v>
+        <v>4.4999999999999996E-50</v>
       </c>
       <c r="U18" s="9">
         <f t="array" ref="U18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -5708,11 +5708,11 @@
       </c>
       <c r="S20" s="10">
         <f t="shared" si="4"/>
-        <v>3.5152960000000002E-3</v>
+        <v>1.0688399999999999E-3</v>
       </c>
       <c r="T20" s="10">
         <f t="shared" si="7"/>
-        <v>3.5152960000000002E-3</v>
+        <v>1.0688399999999999E-3</v>
       </c>
       <c r="U20" s="9">
         <f t="array" ref="U20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -5893,11 +5893,11 @@
       </c>
       <c r="S22" s="10">
         <f t="shared" si="4"/>
-        <v>1.4800000000000002E-4</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="T22" s="10">
         <f t="shared" si="7"/>
-        <v>1.4800000000000002E-4</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="U22" s="9">
         <f t="array" ref="U22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -5990,11 +5990,11 @@
       </c>
       <c r="S23" s="10">
         <f t="shared" si="4"/>
-        <v>1.4800000000000001E-9</v>
+        <v>4.5E-10</v>
       </c>
       <c r="T23" s="10">
         <f t="shared" si="7"/>
-        <v>1.4800000000000001E-9</v>
+        <v>4.5E-10</v>
       </c>
       <c r="U23" s="9">
         <f t="array" ref="U23">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M23,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -6275,11 +6275,11 @@
       </c>
       <c r="S26" s="10">
         <f t="shared" si="4"/>
-        <v>1.48E-7</v>
+        <v>4.4999999999999999E-8</v>
       </c>
       <c r="T26" s="10">
         <f t="shared" si="7"/>
-        <v>1.48E-7</v>
+        <v>4.4999999999999999E-8</v>
       </c>
       <c r="U26" s="9">
         <f t="array" ref="U26">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M26,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -6372,11 +6372,11 @@
       </c>
       <c r="S27" s="10">
         <f t="shared" si="4"/>
-        <v>1.48E-7</v>
+        <v>4.4999999999999999E-8</v>
       </c>
       <c r="T27" s="10">
         <f t="shared" si="7"/>
-        <v>1.48E-7</v>
+        <v>4.4999999999999999E-8</v>
       </c>
       <c r="U27" s="9">
         <f t="array" ref="U27">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M27,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -6757,7 +6757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
   <dimension ref="B2:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
